--- a/day0/doc/pc_mcu通讯协议.xlsx
+++ b/day0/doc/pc_mcu通讯协议.xlsx
@@ -85,7 +85,7 @@
     <t>0x55, 0xEE, 0x03, 0x00, 0x00, 0x00, 0x46</t>
   </si>
   <si>
-    <t>55, EE, 03, 00, 00, 00, 46</t>
+    <t>55 EE 03 00 00 00 46</t>
   </si>
   <si>
     <t>停止</t>
@@ -746,17 +746,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1079,87 +1073,87 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:J7"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="16.2181818181818" style="2" customWidth="1"/>
-    <col min="6" max="8" width="9" style="2"/>
+    <col min="5" max="5" width="16.2181818181818" style="1" customWidth="1"/>
+    <col min="6" max="8" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>2</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
         <v>3</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="2">
         <v>4</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="2">
         <v>5</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1169,75 +1163,75 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="2" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="9">
